--- a/Housing for 2025.xlsx
+++ b/Housing for 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsh04\Desktop\Albuquerque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2495F681-C4B5-43BF-A0C2-482CC49A1A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8586FD2-3088-4800-A13E-D030C131DDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7DFBC101-6A82-41EE-84F4-D9BCCB7884DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>Price</t>
   </si>
@@ -92,7 +92,175 @@
     <t>https://www.fourthstreetflats.com/#availableUnitsSection</t>
   </si>
   <si>
-    <t>W/D, Covered Parking, Carpet</t>
+    <t>https://www.encantoatmesadelsol.com/Floor-plans.aspx</t>
+  </si>
+  <si>
+    <t>Encanto at Mesa del Sol</t>
+  </si>
+  <si>
+    <t>Solaire</t>
+  </si>
+  <si>
+    <t>https://www.liveatsolaireapts.com/floorplans</t>
+  </si>
+  <si>
+    <t>Available 2/10/2025</t>
+  </si>
+  <si>
+    <t>Full Renovation</t>
+  </si>
+  <si>
+    <t>La Ventana</t>
+  </si>
+  <si>
+    <t>https://www.laventanaapts.com/floorplans</t>
+  </si>
+  <si>
+    <t>las Mananitas</t>
+  </si>
+  <si>
+    <t>https://www.lasmananitasapts.com/albuquerque/las-mananitas-apartments/conventional/</t>
+  </si>
+  <si>
+    <t>All Carpet?</t>
+  </si>
+  <si>
+    <t>AYA ABQ</t>
+  </si>
+  <si>
+    <t>https://www.ayaabq.com/floorplans?&amp;utm_source=costar&amp;utm_medium=referral</t>
+  </si>
+  <si>
+    <t>https://resortatsandia.com/floor-plans.php</t>
+  </si>
+  <si>
+    <t>the resotrt at Sandia Village</t>
+  </si>
+  <si>
+    <t>Acacia Gardens</t>
+  </si>
+  <si>
+    <t>https://www.acaciagardensapts.com/floorplans</t>
+  </si>
+  <si>
+    <t>Aydan</t>
+  </si>
+  <si>
+    <t>https://www.aydanapts.com/floorplans?&amp;utm_source=costar&amp;utm_medium=referral</t>
+  </si>
+  <si>
+    <t>alvarado</t>
+  </si>
+  <si>
+    <t>https://www.alvarado-apartments.com/albuquerque-nm/floorplans</t>
+  </si>
+  <si>
+    <t>La vida Buena</t>
+  </si>
+  <si>
+    <t>https://www.lavidabuenaapartments.com/floorplans</t>
+  </si>
+  <si>
+    <t>GREAT GOOGLE REIVEWS/ NO Laundry in unit/Carpet livingroom</t>
+  </si>
+  <si>
+    <t>https://www.wyomingplaceabq.com/floorplans</t>
+  </si>
+  <si>
+    <t>Wyoming Place</t>
+  </si>
+  <si>
+    <t>Good Google Rating, W/D, cheapest maybe carpeted</t>
+  </si>
+  <si>
+    <t>Cibola Village</t>
+  </si>
+  <si>
+    <t>https://www.cibolavillageapts.com/floorplans?&amp;utm_knock=g</t>
+  </si>
+  <si>
+    <t>https://platinumabq.com/floor-plans/</t>
+  </si>
+  <si>
+    <t>Good Google Reviews, W/D, Looks new and like austin new apartments I like, near International district (central)</t>
+  </si>
+  <si>
+    <t>Available 5/03/2025, Good google review, W/D</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Canoan Village</t>
+  </si>
+  <si>
+    <t>https://www.canoanvillageapts.com/Floor-plans.aspx</t>
+  </si>
+  <si>
+    <t>Okay Google Reviews,W/D,newly renovated, 2x2</t>
+  </si>
+  <si>
+    <t>Uptown Square</t>
+  </si>
+  <si>
+    <t>https://www.uptown-apts.com/floorplans</t>
+  </si>
+  <si>
+    <t>Markana</t>
+  </si>
+  <si>
+    <t>Good google Reivews, Fancy Austin style new apartments</t>
+  </si>
+  <si>
+    <t>Good Google Reviews, W/D,</t>
+  </si>
+  <si>
+    <t>LA Paloma</t>
+  </si>
+  <si>
+    <t>Okay Google Review,W/D</t>
+  </si>
+  <si>
+    <t>https://lapaloma-apartments.com/floorplans/</t>
+  </si>
+  <si>
+    <t>Okay Google Review, W/D</t>
+  </si>
+  <si>
+    <t>The Grove</t>
+  </si>
+  <si>
+    <t>https://www.grovetramway.com/floorplans</t>
+  </si>
+  <si>
+    <t>Ottavo</t>
+  </si>
+  <si>
+    <t>https://www.ottavoapts.com/Floor-plans.aspx</t>
+  </si>
+  <si>
+    <t>Okay Google Review,W/D, 2x1 and 2x2 are good prices too</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W/D, Wood,Good Google Review</t>
+  </si>
+  <si>
+    <t>Good Google Reviews, Some units with W/D. Some have partial carpet</t>
+  </si>
+  <si>
+    <t>Vista Del Sol</t>
+  </si>
+  <si>
+    <t>Okay Google Review</t>
+  </si>
+  <si>
+    <t>Great Google Review, W/D, Covered Parking, Carpet</t>
+  </si>
+  <si>
+    <t>The Heights at Tramway</t>
+  </si>
+  <si>
+    <t>https://www.heightstramway.com/floorplans?&amp;utm_knock=g</t>
   </si>
 </sst>
 </file>
@@ -124,12 +292,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,6 +340,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,15 +681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79ECF0-B458-458A-89C0-8300D6BCAF39}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -561,24 +754,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1235</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>630</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
+      <c r="F4" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -602,12 +795,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1250</v>
+      </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>1250</v>
-      </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
@@ -615,12 +808,366 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1534</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1305</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>569</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1417</v>
+      </c>
+      <c r="C9">
+        <v>578</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1370</v>
+      </c>
+      <c r="C10">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1475</v>
+      </c>
+      <c r="C11">
+        <v>634</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1494</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8">
+        <v>712</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1330</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>786</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1224</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5">
+        <v>551</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>800</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1190</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>506</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>630</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1025</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>432</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>999</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4">
+        <v>693</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>1040</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4">
+        <v>760</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1306</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>629</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1525</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1400</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1295</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>905</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1300</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>810</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>1350</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="5">
+        <v>650</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1480</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>720</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1235</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1200</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30">
+        <v>895</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{276A3C60-2450-4ADC-9B57-AF06575B987F}"/>
+    <hyperlink ref="D22" r:id="rId2" xr:uid="{136D9406-7DD9-46E4-9AC2-17F2A2B10726}"/>
+    <hyperlink ref="D23" r:id="rId3" xr:uid="{6E267C8A-24A2-494E-950C-34AB6071902D}"/>
+    <hyperlink ref="D24" r:id="rId4" xr:uid="{D6BC4229-9991-44B1-B1F7-7B40A8C6CF9D}"/>
+    <hyperlink ref="D27" r:id="rId5" xr:uid="{60C34D4E-537C-41D7-9B32-65CEC57BA96D}"/>
+    <hyperlink ref="D28" r:id="rId6" xr:uid="{8A1FBD06-A1BB-4B4F-8784-2A5639428298}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Housing for 2025.xlsx
+++ b/Housing for 2025.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsh04\Desktop\Albuquerque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8586FD2-3088-4800-A13E-D030C131DDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973156B5-D308-4FDD-A496-00636EE29607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7DFBC101-6A82-41EE-84F4-D9BCCB7884DA}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14670" windowHeight="15585" activeTab="1" xr2:uid="{7DFBC101-6A82-41EE-84F4-D9BCCB7884DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
   <si>
     <t>Price</t>
   </si>
@@ -261,6 +262,156 @@
   </si>
   <si>
     <t>https://www.heightstramway.com/floorplans?&amp;utm_knock=g</t>
+  </si>
+  <si>
+    <t>La Mirage Apartment</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>W/D</t>
+  </si>
+  <si>
+    <t>Google Review</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Villa La Charles</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Chelwood Vista TownHomes</t>
+  </si>
+  <si>
+    <t>Brio Sandi</t>
+  </si>
+  <si>
+    <t>the mountain vista</t>
+  </si>
+  <si>
+    <t>The Village at Sandia</t>
+  </si>
+  <si>
+    <t>The June</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>Lumen</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>La Mirage</t>
+  </si>
+  <si>
+    <t>Las Kivas</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Sungate</t>
+  </si>
+  <si>
+    <t>Sierra Meadows</t>
+  </si>
+  <si>
+    <t>Retreat</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>La Vida Buena</t>
+  </si>
+  <si>
+    <t>Calero</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>2x1</t>
+  </si>
+  <si>
+    <t>ABQ Encore</t>
+  </si>
+  <si>
+    <t>Rancho verde</t>
+  </si>
+  <si>
+    <t>union505</t>
+  </si>
+  <si>
+    <t>Overture</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>Cielo Alameda</t>
+  </si>
+  <si>
+    <t>Olympus Almeda</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Olympus NorthPoint</t>
+  </si>
+  <si>
+    <t>Olympus Encantada</t>
+  </si>
+  <si>
+    <t>Markana Uptown</t>
+  </si>
+  <si>
+    <t>The LandMark</t>
+  </si>
+  <si>
+    <t>https://www.cblegacypropertymanagement.com/listings/detail/90ba0ce2-f50a-4273-9319-d3eeee0205ff</t>
+  </si>
+  <si>
+    <t>3216 Alvarado Dr NE, Albuquerque, NM 87110</t>
+  </si>
+  <si>
+    <t>The Q @ Nob Hill</t>
+  </si>
+  <si>
+    <t>Aspen Plaza</t>
+  </si>
+  <si>
+    <t>The glo</t>
   </si>
 </sst>
 </file>
@@ -331,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,6 +497,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -681,11 +835,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79ECF0-B458-458A-89C0-8300D6BCAF39}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,6 +1314,11 @@
         <v>74</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{276A3C60-2450-4ADC-9B57-AF06575B987F}"/>
@@ -1171,4 +1330,586 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F3B8C9-02EA-43F1-B30C-C2A9366E165D}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>1494</v>
+      </c>
+      <c r="C2">
+        <v>712</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9">
+        <v>1305</v>
+      </c>
+      <c r="C9">
+        <v>622</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1454</v>
+      </c>
+      <c r="C10" s="5">
+        <v>657</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11">
+        <v>1405</v>
+      </c>
+      <c r="C11">
+        <v>708</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12">
+        <v>1635</v>
+      </c>
+      <c r="C12">
+        <v>1056</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15">
+        <v>878</v>
+      </c>
+      <c r="C15">
+        <v>608</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19">
+        <v>1379</v>
+      </c>
+      <c r="C19">
+        <v>912</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1330</v>
+      </c>
+      <c r="C21" s="5">
+        <v>752</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23">
+        <v>598</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24">
+        <v>391</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25">
+        <v>1603</v>
+      </c>
+      <c r="C25">
+        <v>587</v>
+      </c>
+      <c r="H25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26">
+        <v>748</v>
+      </c>
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27">
+        <v>2011</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28">
+        <v>1671</v>
+      </c>
+      <c r="C28">
+        <v>829</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1365</v>
+      </c>
+      <c r="C29" s="5">
+        <v>824</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30">
+        <v>1713</v>
+      </c>
+      <c r="C30">
+        <v>589</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1459</v>
+      </c>
+      <c r="C31" s="5">
+        <v>670</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32">
+        <v>1600</v>
+      </c>
+      <c r="C32">
+        <v>1275</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1262</v>
+      </c>
+      <c r="C33" s="5">
+        <v>630</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>565</v>
+      </c>
+      <c r="C36">
+        <v>1350</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H32" r:id="rId1" xr:uid="{A487419F-B8A6-4BDE-A763-0459D66523E0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>